--- a/artfynd/A 39855-2022.xlsx
+++ b/artfynd/A 39855-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80923932</v>
+        <v>81368550</v>
       </c>
       <c r="B2" t="n">
-        <v>103813</v>
+        <v>96252</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220785</v>
+        <v>223591</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Tågarp, Sk</t>
+          <t>1 km SO om Södergård, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>420921.7954929644</v>
+        <v>420859.7601243296</v>
       </c>
       <c r="R2" t="n">
-        <v>6190309.99155066</v>
+        <v>6190239.832464891</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2014-07-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2014-07-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,28 +779,33 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Lövskog</t>
-        </is>
-      </c>
+          <t>Fuktigt hässle</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Charlotte Wigermo</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Torbjörn Tyler</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Skånes Flora Millora 2008-2015</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81368550</v>
+        <v>81368358</v>
       </c>
       <c r="B3" t="n">
-        <v>96252</v>
+        <v>96370</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +818,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>223591</v>
+        <v>219875</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Custer) Rchb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -899,7 +904,6 @@
           <t>Fuktigt hässle</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
@@ -919,10 +923,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81368358</v>
+        <v>81368477</v>
       </c>
       <c r="B4" t="n">
-        <v>96370</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -935,21 +939,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219875</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1040,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81368477</v>
+        <v>81368525</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>96312</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,21 +1060,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>219798</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1080,10 +1084,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>420859.7601243296</v>
+        <v>420758.613196145</v>
       </c>
       <c r="R5" t="n">
-        <v>6190239.832464891</v>
+        <v>6190338.232892067</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1139,7 +1143,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Fuktigt hässle</t>
+          <t>Rik ek-/hasselskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1161,10 +1165,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81368525</v>
+        <v>80923932</v>
       </c>
       <c r="B6" t="n">
-        <v>96312</v>
+        <v>103813</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,41 +1177,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219798</v>
+        <v>220785</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1 km SO om Södergård, Sk</t>
+          <t>Tågarp, Sk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>420758.613196145</v>
+        <v>420921.7954929644</v>
       </c>
       <c r="R6" t="n">
-        <v>6190338.232892067</v>
+        <v>6190309.99155066</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1231,7 +1235,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1241,7 +1245,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,25 +1264,21 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Rik ek-/hasselskog</t>
+          <t>Lövskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Charlotte Wigermo</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Torbjörn Tyler</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Skånes Flora Millora 2008-2015</t>
-        </is>
-      </c>
+          <t>Örjan Fritz</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 39855-2022.xlsx
+++ b/artfynd/A 39855-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81368550</v>
+        <v>80923932</v>
       </c>
       <c r="B2" t="n">
-        <v>96252</v>
+        <v>103813</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>223591</v>
+        <v>220785</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1 km SO om Södergård, Sk</t>
+          <t>Tågarp, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>420859.7601243296</v>
+        <v>420921.7954929644</v>
       </c>
       <c r="R2" t="n">
-        <v>6190239.832464891</v>
+        <v>6190309.99155066</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-07-24</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -779,33 +779,28 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Fuktigt hässle</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
+          <t>Lövskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Charlotte Wigermo</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Torbjörn Tyler</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Skånes Flora Millora 2008-2015</t>
-        </is>
-      </c>
+          <t>Örjan Fritz</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>81368358</v>
+        <v>81368550</v>
       </c>
       <c r="B3" t="n">
-        <v>96370</v>
+        <v>96252</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219875</v>
+        <v>223591</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Platanthera chlorantha</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Custer) Rchb.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -904,6 +899,7 @@
           <t>Fuktigt hässle</t>
         </is>
       </c>
+      <c r="AR3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
@@ -923,10 +919,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81368477</v>
+        <v>81368358</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>96370</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,21 +935,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>219875</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Platanthera chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Custer) Rchb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1044,10 +1040,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81368525</v>
+        <v>81368477</v>
       </c>
       <c r="B5" t="n">
-        <v>96312</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,21 +1056,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1084,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>420758.613196145</v>
+        <v>420859.7601243296</v>
       </c>
       <c r="R5" t="n">
-        <v>6190338.232892067</v>
+        <v>6190239.832464891</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1143,7 +1139,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Rik ek-/hasselskog</t>
+          <t>Fuktigt hässle</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1165,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80923932</v>
+        <v>81368525</v>
       </c>
       <c r="B6" t="n">
-        <v>103813</v>
+        <v>96312</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1177,41 +1173,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220785</v>
+        <v>219798</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Tågarp, Sk</t>
+          <t>1 km SO om Södergård, Sk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>420921.7954929644</v>
+        <v>420758.613196145</v>
       </c>
       <c r="R6" t="n">
-        <v>6190309.99155066</v>
+        <v>6190338.232892067</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1235,7 +1231,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2014-07-24</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1245,7 +1241,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2014-07-24</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1264,21 +1260,25 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Lövskog</t>
+          <t>Rik ek-/hasselskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Charlotte Wigermo</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Torbjörn Tyler</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Skånes Flora Millora 2008-2015</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
